--- a/Test_Hadrena.xlsx
+++ b/Test_Hadrena.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hadrena-my.sharepoint.com/personal/a_freslon_hadrena_com/Documents/Bureau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0362CA2-31B5-4354-BB2E-BD31EF5BE440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{146D097D-3E51-437D-BFF5-0CDDE4A5120C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93CB0006-7288-4C96-ACC5-CAD46B2C629E}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="-14970" windowWidth="21600" windowHeight="14595" xr2:uid="{3206C5E0-97DC-48AF-AEC1-60FE3268AA51}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="28890" windowHeight="15585" xr2:uid="{3206C5E0-97DC-48AF-AEC1-60FE3268AA51}"/>
   </bookViews>
   <sheets>
     <sheet name="Consignes" sheetId="6" r:id="rId1"/>
@@ -48,9 +48,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="643">
   <si>
-    <t>Check;Site;Pos;Clef;Type compte;Compte général;Libellé compte;Attribut;Valeur</t>
-  </si>
-  <si>
     <t>280500000KJ.01;KoJump Park;KJ.01;280500000KJ.01;Bilan;280500000;AMORTIS. LOGICIEL/BREVET/LICENCE;45474;141,972</t>
   </si>
   <si>
@@ -1479,27 +1476,6 @@
     <t>635800000KJ.01;KoJump Park;KJ.01;635800000KJ.01;Gestion;635800000;AUTRES DROITS;45658;-32,04</t>
   </si>
   <si>
-    <t>641120000KJ.01;KoJump Park;KJ.01;641120000KJ.01;Gestion;641120000;SALAIRES;45474;-18735,002</t>
-  </si>
-  <si>
-    <t>641120000KJ.01;KoJump Park;KJ.01;641120000KJ.01;Gestion;641120000;SALAIRES;45505;-15852,694</t>
-  </si>
-  <si>
-    <t>641120000KJ.01;KoJump Park;KJ.01;641120000KJ.01;Gestion;641120000;SALAIRES;45536;-20570,205</t>
-  </si>
-  <si>
-    <t>641120000KJ.01;KoJump Park;KJ.01;641120000KJ.01;Gestion;641120000;SALAIRES;45566;-21557,2</t>
-  </si>
-  <si>
-    <t>641120000KJ.01;KoJump Park;KJ.01;641120000KJ.01;Gestion;641120000;SALAIRES;45597;-26741,06</t>
-  </si>
-  <si>
-    <t>641120000KJ.01;KoJump Park;KJ.01;641120000KJ.01;Gestion;641120000;SALAIRES;45627;-28193,3</t>
-  </si>
-  <si>
-    <t>641120000KJ.01;KoJump Park;KJ.01;641120000KJ.01;Gestion;641120000;SALAIRES;45658;-24883,937</t>
-  </si>
-  <si>
     <t>641200000KJ.01;KoJump Park;KJ.01;641200000KJ.01;Gestion;641200000;CONGÉS PAYÉS;45474;569,82</t>
   </si>
   <si>
@@ -1527,42 +1503,24 @@
     <t>641300000KJ.01;KoJump Park;KJ.01;641300000KJ.01;Gestion;641300000;PRIMES ET GRATIFICATIONS;45505;-1606,024</t>
   </si>
   <si>
-    <t>641300000KJ.01;KoJump Park;KJ.01;641300000KJ.01;Gestion;641300000;PRIMES ET GRATIFICATIONS;45536;-4371,495</t>
-  </si>
-  <si>
     <t>641300000KJ.01;KoJump Park;KJ.01;641300000KJ.01;Gestion;641300000;PRIMES ET GRATIFICATIONS;45566;-2618,048</t>
   </si>
   <si>
     <t>641300000KJ.01;KoJump Park;KJ.01;641300000KJ.01;Gestion;641300000;PRIMES ET GRATIFICATIONS;45597;-2179,419</t>
   </si>
   <si>
-    <t>641300000KJ.01;KoJump Park;KJ.01;641300000KJ.01;Gestion;641300000;PRIMES ET GRATIFICATIONS;45627;-5092,6</t>
-  </si>
-  <si>
-    <t>641300000KJ.01;KoJump Park;KJ.01;641300000KJ.01;Gestion;641300000;PRIMES ET GRATIFICATIONS;45658;-13509,136</t>
-  </si>
-  <si>
     <t>645100000KJ.01;KoJump Park;KJ.01;645100000KJ.01;Gestion;645100000;COTISATIONS À L'URSSAF;45474;-3377,95</t>
   </si>
   <si>
     <t>645100000KJ.01;KoJump Park;KJ.01;645100000KJ.01;Gestion;645100000;COTISATIONS À L'URSSAF;45505;-2107,623</t>
   </si>
   <si>
-    <t>645100000KJ.01;KoJump Park;KJ.01;645100000KJ.01;Gestion;645100000;COTISATIONS À L'URSSAF;45536;-8851,56</t>
-  </si>
-  <si>
     <t>645100000KJ.01;KoJump Park;KJ.01;645100000KJ.01;Gestion;645100000;COTISATIONS À L'URSSAF;45566;-2943,162</t>
   </si>
   <si>
-    <t>645100000KJ.01;KoJump Park;KJ.01;645100000KJ.01;Gestion;645100000;COTISATIONS À L'URSSAF;45597;-6060</t>
-  </si>
-  <si>
     <t>645100000KJ.01;KoJump Park;KJ.01;645100000KJ.01;Gestion;645100000;COTISATIONS À L'URSSAF;45627;-2111,228</t>
   </si>
   <si>
-    <t>645100000KJ.01;KoJump Park;KJ.01;645100000KJ.01;Gestion;645100000;COTISATIONS À L'URSSAF;45658;-6652,261</t>
-  </si>
-  <si>
     <t>645300000KJ.01;KoJump Park;KJ.01;645300000KJ.01;Gestion;645300000;COTISATIONS AUX CAISSES DE RETRAITE;45474;-1135,056</t>
   </si>
   <si>
@@ -1689,27 +1647,6 @@
     <t>681120000KJ.01;KoJump Park;KJ.01;681120000KJ.01;Gestion;681120000;DOT. AMORT. S/IMMOBIL. CORPOREL.;45658;-5694,174</t>
   </si>
   <si>
-    <t>706120000KJ.01;KoJump Park;KJ.01;706120000KJ.01;Gestion;706120000;GP BTC BOWLING PARTIES 20%;45474;51509,592</t>
-  </si>
-  <si>
-    <t>706120000KJ.01;KoJump Park;KJ.01;706120000KJ.01;Gestion;706120000;GP BTC BOWLING PARTIES 20%;45505;35996,352</t>
-  </si>
-  <si>
-    <t>706120000KJ.01;KoJump Park;KJ.01;706120000KJ.01;Gestion;706120000;GP BTC BOWLING PARTIES 20%;45536;11288,73</t>
-  </si>
-  <si>
-    <t>706120000KJ.01;KoJump Park;KJ.01;706120000KJ.01;Gestion;706120000;GP BTC BOWLING PARTIES 20%;45566;41340,563</t>
-  </si>
-  <si>
-    <t>706120000KJ.01;KoJump Park;KJ.01;706120000KJ.01;Gestion;706120000;GP BTC BOWLING PARTIES 20%;45597;25772,976</t>
-  </si>
-  <si>
-    <t>706120000KJ.01;KoJump Park;KJ.01;706120000KJ.01;Gestion;706120000;GP BTC BOWLING PARTIES 20%;45627;43814,604</t>
-  </si>
-  <si>
-    <t>706120000KJ.01;KoJump Park;KJ.01;706120000KJ.01;Gestion;706120000;GP BTC BOWLING PARTIES 20%;45658;26045,68</t>
-  </si>
-  <si>
     <t>706123000KJ.01;KoJump Park;KJ.01;706123000KJ.01;Gestion;706123000;GP BTC KARAOKE 10%;45474;1792,175</t>
   </si>
   <si>
@@ -1845,60 +1782,9 @@
     <t>708120000KJ.01;KoJump Park;KJ.01;708120000KJ.01;Gestion;708120000;GP BTC JEUX VIDEO 20%;45536;2869,438</t>
   </si>
   <si>
-    <t>708120000KJ.01;KoJump Park;KJ.01;708120000KJ.01;Gestion;708120000;GP BTC JEUX VIDEO 20%;45566;0</t>
-  </si>
-  <si>
-    <t>708120000KJ.01;KoJump Park;KJ.01;708120000KJ.01;Gestion;708120000;GP BTC JEUX VIDEO 20%;45597;-50303,68</t>
-  </si>
-  <si>
-    <t>708120000KJ.01;KoJump Park;KJ.01;708120000KJ.01;Gestion;708120000;GP BTC JEUX VIDEO 20%;45627;0</t>
-  </si>
-  <si>
-    <t>708120000KJ.01;KoJump Park;KJ.01;708120000KJ.01;Gestion;708120000;GP BTC JEUX VIDEO 20%;45658;0</t>
-  </si>
-  <si>
-    <t>708125000KJ.01;KoJump Park;KJ.01;708125000KJ.01;Gestion;708125000;GP BTC LASER 10%;45474;10229,008</t>
-  </si>
-  <si>
-    <t>708125000KJ.01;KoJump Park;KJ.01;708125000KJ.01;Gestion;708125000;GP BTC LASER 10%;45505;8223,015</t>
-  </si>
-  <si>
-    <t>708125000KJ.01;KoJump Park;KJ.01;708125000KJ.01;Gestion;708125000;GP BTC LASER 10%;45536;7860,74</t>
-  </si>
-  <si>
-    <t>708125000KJ.01;KoJump Park;KJ.01;708125000KJ.01;Gestion;708125000;GP BTC LASER 10%;45566;6761,511</t>
-  </si>
-  <si>
-    <t>708125000KJ.01;KoJump Park;KJ.01;708125000KJ.01;Gestion;708125000;GP BTC LASER 10%;45597;10191,925</t>
-  </si>
-  <si>
-    <t>708125000KJ.01;KoJump Park;KJ.01;708125000KJ.01;Gestion;708125000;GP BTC LASER 10%;45627;10319,94</t>
-  </si>
-  <si>
-    <t>708125000KJ.01;KoJump Park;KJ.01;708125000KJ.01;Gestion;708125000;GP BTC LASER 10%;45658;5732,451</t>
-  </si>
-  <si>
-    <t>708125100KJ.01;KoJump Park;KJ.01;708125100KJ.01;Gestion;708125100;GP BTC LASER VR 10%;45474;3227</t>
-  </si>
-  <si>
-    <t>708125100KJ.01;KoJump Park;KJ.01;708125100KJ.01;Gestion;708125100;GP BTC LASER VR 10%;45505;2979,724</t>
-  </si>
-  <si>
-    <t>708125100KJ.01;KoJump Park;KJ.01;708125100KJ.01;Gestion;708125100;GP BTC LASER VR 10%;45536;778,53</t>
-  </si>
-  <si>
-    <t>708125100KJ.01;KoJump Park;KJ.01;708125100KJ.01;Gestion;708125100;GP BTC LASER VR 10%;45566;1244,682</t>
-  </si>
-  <si>
-    <t>708125100KJ.01;KoJump Park;KJ.01;708125100KJ.01;Gestion;708125100;GP BTC LASER VR 10%;45597;3083,392</t>
-  </si>
-  <si>
     <t>708125100KJ.01;KoJump Park;KJ.01;708125100KJ.01;Gestion;708125100;GP BTC LASER VR 10%;45627;4245,165</t>
   </si>
   <si>
-    <t>708125100KJ.01;KoJump Park;KJ.01;708125100KJ.01;Gestion;708125100;GP BTC LASER VR 10%;45658;1636,752</t>
-  </si>
-  <si>
     <t>708128000KJ.01;KoJump Park;KJ.01;708128000KJ.01;Gestion;708128000;GP BTC QUIZ ROOM 10%;45474;2055,21</t>
   </si>
   <si>
@@ -1962,23 +1848,137 @@
     <t>Introduction – Test Excel FP&amp;A</t>
   </si>
   <si>
-    <t>Base de données (format .csv)</t>
-  </si>
-  <si>
-    <t>*Le décompte du temps démarre dès le téléchargement du test</t>
-  </si>
-  <si>
-    <t>*Veuillez déposer le fichier dans la case "Select Excel File" et renseigner votre adresse mail avant de soumettre vos résultats</t>
-  </si>
-  <si>
-    <t>Dans le cadre du recrutement d’un collaborateur pour notre service FP&amp;A, nous vous proposons ce test Excel à réaliser en 24 heures. L’objectif est d’évaluer vos compétences en analyse de données, modélisation financière et manipulation d’Excel.
+    <t>Dans le cadre du recrutement d’un stagiaire pour notre service FP&amp;A, nous vous proposons ce test Excel à réaliser en 24 heures. L’objectif est d’évaluer vos compétences en analyse de données, modélisation financière et manipulation d’Excel.
 Le test est structuré en deux objectifs, chacun comprenant plusieurs consignes à suivre. Nous vous recommandons de répondre à l’ensemble des questions, sans vous attarder excessivement sur un exercice qui pourrait vous faire perdre trop de temps. L’objectif est de livrer un travail complet et structuré dans le délai imparti.
 À l’issue de ce test, nous analyserons vos résultats et reviendrons vers vous pour un entretien de débriefing, sous réserve que votre travail réponde à nos attentes.
 Bonne chance et à bientôt !
 L'équipe FP&amp;A Hadrena</t>
   </si>
   <si>
-    <t>*Lien de dépôt du fichier : https://hadrena-fpa.github.io/Test-FPA/</t>
+    <t>Base de données (format .csv)</t>
+  </si>
+  <si>
+    <t>*Le décompte du temps démarre dès le téléchargement du test</t>
+  </si>
+  <si>
+    <t>*Lien de dépôt du fichier : https://hadrena-fpa.github.io/Test-Intern/</t>
+  </si>
+  <si>
+    <t>*Veuillez déposer le fichier dans la case "Select Excel File" et renseigner votre adresse mail avant de soumettre vos résultats</t>
+  </si>
+  <si>
+    <t>Check;Site;Pos;Clef;Type compte;Compte général;Libellé compte;Date;Valeur</t>
+  </si>
+  <si>
+    <t>708120000KJ.01;KoJump Park;KJ.01;708120000KJ.01;Gestion;708120000;GP BTC JEUX VIDEO 20%;45566;1765,623</t>
+  </si>
+  <si>
+    <t>708120000KJ.01;KoJump Park;KJ.01;708120000KJ.01;Gestion;708120000;GP BTC JEUX VIDEO 20%;45627;1980,543</t>
+  </si>
+  <si>
+    <t>708120000KJ.01;KoJump Park;KJ.01;708120000KJ.01;Gestion;708120000;GP BTC JEUX VIDEO 20%;45658;2539,926</t>
+  </si>
+  <si>
+    <t>641300000KJ.01;KoJump Park;KJ.01;641300000KJ.01;Gestion;641300000;PRIMES ET GRATIFICATIONS;45658;-3509,136</t>
+  </si>
+  <si>
+    <t>641300000KJ.01;KoJump Park;KJ.01;641300000KJ.01;Gestion;641300000;PRIMES ET GRATIFICATIONS;45627;-1092,6</t>
+  </si>
+  <si>
+    <t>641300000KJ.01;KoJump Park;KJ.01;641300000KJ.01;Gestion;641300000;PRIMES ET GRATIFICATIONS;45536;-1371,495</t>
+  </si>
+  <si>
+    <t>641120000KJ.01;KoJump Park;KJ.01;641120000KJ.01;Gestion;641120000;SALAIRES;45474;-12735,002</t>
+  </si>
+  <si>
+    <t>641120000KJ.01;KoJump Park;KJ.01;641120000KJ.01;Gestion;641120000;SALAIRES;45505;-13852,694</t>
+  </si>
+  <si>
+    <t>641120000KJ.01;KoJump Park;KJ.01;641120000KJ.01;Gestion;641120000;SALAIRES;45536;-16570,205</t>
+  </si>
+  <si>
+    <t>641120000KJ.01;KoJump Park;KJ.01;641120000KJ.01;Gestion;641120000;SALAIRES;45566;-17557,2</t>
+  </si>
+  <si>
+    <t>641120000KJ.01;KoJump Park;KJ.01;641120000KJ.01;Gestion;641120000;SALAIRES;45597;-14741,06</t>
+  </si>
+  <si>
+    <t>641120000KJ.01;KoJump Park;KJ.01;641120000KJ.01;Gestion;641120000;SALAIRES;45627;-19193,3</t>
+  </si>
+  <si>
+    <t>641120000KJ.01;KoJump Park;KJ.01;641120000KJ.01;Gestion;641120000;SALAIRES;45658;-13883,937</t>
+  </si>
+  <si>
+    <t>645100000KJ.01;KoJump Park;KJ.01;645100000KJ.01;Gestion;645100000;COTISATIONS À L'URSSAF;45658;-3652,261</t>
+  </si>
+  <si>
+    <t>645100000KJ.01;KoJump Park;KJ.01;645100000KJ.01;Gestion;645100000;COTISATIONS À L'URSSAF;45597;-2060</t>
+  </si>
+  <si>
+    <t>645100000KJ.01;KoJump Park;KJ.01;645100000KJ.01;Gestion;645100000;COTISATIONS À L'URSSAF;45536;-4851,56</t>
+  </si>
+  <si>
+    <t>706120000KJ.01;KoJump Park;KJ.01;706120000KJ.01;Gestion;706120000;GP BTC BOWLING PARTIES 20%;45474;61509,592</t>
+  </si>
+  <si>
+    <t>706120000KJ.01;KoJump Park;KJ.01;706120000KJ.01;Gestion;706120000;GP BTC BOWLING PARTIES 20%;45505;45996,352</t>
+  </si>
+  <si>
+    <t>706120000KJ.01;KoJump Park;KJ.01;706120000KJ.01;Gestion;706120000;GP BTC BOWLING PARTIES 20%;45536;21288,73</t>
+  </si>
+  <si>
+    <t>706120000KJ.01;KoJump Park;KJ.01;706120000KJ.01;Gestion;706120000;GP BTC BOWLING PARTIES 20%;45566;51340,563</t>
+  </si>
+  <si>
+    <t>706120000KJ.01;KoJump Park;KJ.01;706120000KJ.01;Gestion;706120000;GP BTC BOWLING PARTIES 20%;45597;35772,976</t>
+  </si>
+  <si>
+    <t>706120000KJ.01;KoJump Park;KJ.01;706120000KJ.01;Gestion;706120000;GP BTC BOWLING PARTIES 20%;45627;53814,604</t>
+  </si>
+  <si>
+    <t>706120000KJ.01;KoJump Park;KJ.01;706120000KJ.01;Gestion;706120000;GP BTC BOWLING PARTIES 20%;45658;36045,68</t>
+  </si>
+  <si>
+    <t>708125000KJ.01;KoJump Park;KJ.01;708125000KJ.01;Gestion;708125000;GP BTC LASER 10%;45474;12229,008</t>
+  </si>
+  <si>
+    <t>708125000KJ.01;KoJump Park;KJ.01;708125000KJ.01;Gestion;708125000;GP BTC LASER 10%;45505;10223,015</t>
+  </si>
+  <si>
+    <t>708125000KJ.01;KoJump Park;KJ.01;708125000KJ.01;Gestion;708125000;GP BTC LASER 10%;45536;9860,74</t>
+  </si>
+  <si>
+    <t>708125000KJ.01;KoJump Park;KJ.01;708125000KJ.01;Gestion;708125000;GP BTC LASER 10%;45566;8761,511</t>
+  </si>
+  <si>
+    <t>708125000KJ.01;KoJump Park;KJ.01;708125000KJ.01;Gestion;708125000;GP BTC LASER 10%;45597;12191,925</t>
+  </si>
+  <si>
+    <t>708125000KJ.01;KoJump Park;KJ.01;708125000KJ.01;Gestion;708125000;GP BTC LASER 10%;45627;12319,94</t>
+  </si>
+  <si>
+    <t>708125000KJ.01;KoJump Park;KJ.01;708125000KJ.01;Gestion;708125000;GP BTC LASER 10%;45658;7732,451</t>
+  </si>
+  <si>
+    <t>708125100KJ.01;KoJump Park;KJ.01;708125100KJ.01;Gestion;708125100;GP BTC LASER VR 10%;45474;6227</t>
+  </si>
+  <si>
+    <t>708125100KJ.01;KoJump Park;KJ.01;708125100KJ.01;Gestion;708125100;GP BTC LASER VR 10%;45505;5979,724</t>
+  </si>
+  <si>
+    <t>708125100KJ.01;KoJump Park;KJ.01;708125100KJ.01;Gestion;708125100;GP BTC LASER VR 10%;45536;2778,53</t>
+  </si>
+  <si>
+    <t>708125100KJ.01;KoJump Park;KJ.01;708125100KJ.01;Gestion;708125100;GP BTC LASER VR 10%;45566;2244,682</t>
+  </si>
+  <si>
+    <t>708125100KJ.01;KoJump Park;KJ.01;708125100KJ.01;Gestion;708125100;GP BTC LASER VR 10%;45597;4083,392</t>
+  </si>
+  <si>
+    <t>708125100KJ.01;KoJump Park;KJ.01;708125100KJ.01;Gestion;708125100;GP BTC LASER VR 10%;45658;2636,752</t>
+  </si>
+  <si>
+    <t>708120000KJ.01;KoJump Park;KJ.01;708120000KJ.01;Gestion;708120000;GP BTC JEUX VIDEO 20%;45597;5303,68</t>
   </si>
 </sst>
 </file>
@@ -2359,8 +2359,8 @@
       <xdr:rowOff>17212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>761999</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
@@ -2378,7 +2378,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="438149" y="398212"/>
-          <a:ext cx="8201025" cy="2221164"/>
+          <a:ext cx="7972426" cy="2221164"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2682,7 +2682,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
-            <a:t> Brute &amp; EBITDA)</a:t>
+            <a:t> Brute &amp; EBITDA).</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200" b="0"/>
         </a:p>
@@ -2705,7 +2705,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0"/>
-            <a:t>3 - D'après vous, quelle activité affiche la meilleure marge EBITDA entre le bowling, le bar, le restaurant, le karting et pourquoi ?</a:t>
+            <a:t>3 - D'après </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" u="sng"/>
+            <a:t>vous</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0"/>
+            <a:t>, quelle activité affiche la meilleure marge EBITDA entre le bowling, le bar, le restaurant, le karting et pourquoi ?</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2716,7 +2724,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0"/>
-            <a:t>4 - Donnez 5 KPIs permettants d'analyser la performance d'un Family Entertainement Center et argumentez sur leurs pertinence</a:t>
+            <a:t>4 - Donnez 5 KPIs permettants d'analyser la performance d'un Family Entertainement Center et argumentez sur leurs pertinence.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2739,7 +2747,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2755,7 +2763,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="466725" y="180977"/>
-          <a:ext cx="6153150" cy="1304924"/>
+          <a:ext cx="6153150" cy="1276348"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3051,11 +3059,15 @@
           </a:br>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0"/>
-            <a:t>1 - </a:t>
+            <a:t>1 - En</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+            <a:t> utilisant les données ci-dessous uniquement, c</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200"/>
-            <a:t>Comparez les résultats des premiers mois de 2023 et 2024, puis établissez une projection mensuelle du chiffre d’affaires total du centre sur trois ans, jusqu’au 31/12/2026.</a:t>
+            <a:t>omparez les résultats des premiers mois de 2023 et 2024, puis établissez une projection mensuelle du CA total du centre jusqu’au 31/12/2026.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3399,7 +3411,7 @@
   <dimension ref="B11:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3413,7 +3425,7 @@
   <sheetData>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>637</v>
+        <v>599</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3431,7 +3443,7 @@
     <row r="14" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="37" t="s">
-        <v>641</v>
+        <v>600</v>
       </c>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
@@ -3597,12 +3609,12 @@
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="35" t="s">
-        <v>639</v>
+        <v>602</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="35" t="s">
-        <v>642</v>
+        <v>603</v>
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -3615,7 +3627,7 @@
     </row>
     <row r="31" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="35" t="s">
-        <v>640</v>
+        <v>604</v>
       </c>
       <c r="C31" s="36"/>
       <c r="D31" s="36"/>
@@ -3643,7 +3655,7 @@
   <dimension ref="B17:L651"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3655,7 +3667,7 @@
   <sheetData>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="s">
-        <v>638</v>
+        <v>601</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3675,4417 +3687,4417 @@
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
       <c r="C20" s="15" t="s">
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="L20" s="20"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
       <c r="C21" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="20"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="19"/>
       <c r="C22" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22" s="20"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="19"/>
       <c r="C23" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23" s="20"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="19"/>
       <c r="C24" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L24" s="20"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="19"/>
       <c r="C25" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L25" s="20"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="19"/>
       <c r="C26" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L26" s="20"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="19"/>
       <c r="C27" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L27" s="20"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="19"/>
       <c r="C28" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L28" s="20"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="19"/>
       <c r="C29" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L29" s="20"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="19"/>
       <c r="C30" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L30" s="20"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="19"/>
       <c r="C31" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L31" s="20"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="19"/>
       <c r="C32" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L32" s="20"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="19"/>
       <c r="C33" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L33" s="20"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="19"/>
       <c r="C34" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L34" s="20"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="19"/>
       <c r="C35" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L35" s="20"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="19"/>
       <c r="C36" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L36" s="20"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="19"/>
       <c r="C37" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L37" s="20"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="19"/>
       <c r="C38" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L38" s="20"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="19"/>
       <c r="C39" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L39" s="20"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="19"/>
       <c r="C40" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L40" s="20"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="19"/>
       <c r="C41" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L41" s="20"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="19"/>
       <c r="C42" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L42" s="20"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="19"/>
       <c r="C43" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L43" s="20"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="19"/>
       <c r="C44" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L44" s="20"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="19"/>
       <c r="C45" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L45" s="20"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="19"/>
       <c r="C46" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L46" s="20"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="19"/>
       <c r="C47" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L47" s="20"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="19"/>
       <c r="C48" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L48" s="20"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="19"/>
       <c r="C49" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L49" s="20"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="19"/>
       <c r="C50" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L50" s="20"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="19"/>
       <c r="C51" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L51" s="20"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="19"/>
       <c r="C52" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L52" s="20"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="19"/>
       <c r="C53" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L53" s="20"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="19"/>
       <c r="C54" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L54" s="20"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="19"/>
       <c r="C55" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L55" s="20"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="19"/>
       <c r="C56" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L56" s="20"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="19"/>
       <c r="C57" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L57" s="20"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="19"/>
       <c r="C58" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L58" s="20"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="19"/>
       <c r="C59" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L59" s="20"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="19"/>
       <c r="C60" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L60" s="20"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="19"/>
       <c r="C61" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L61" s="20"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" s="19"/>
       <c r="C62" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L62" s="20"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" s="19"/>
       <c r="C63" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L63" s="20"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" s="19"/>
       <c r="C64" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L64" s="20"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" s="19"/>
       <c r="C65" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L65" s="20"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" s="19"/>
       <c r="C66" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L66" s="20"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" s="19"/>
       <c r="C67" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L67" s="20"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" s="19"/>
       <c r="C68" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L68" s="20"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" s="19"/>
       <c r="C69" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L69" s="20"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" s="19"/>
       <c r="C70" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L70" s="20"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" s="19"/>
       <c r="C71" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L71" s="20"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" s="19"/>
       <c r="C72" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L72" s="20"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" s="19"/>
       <c r="C73" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L73" s="20"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" s="19"/>
       <c r="C74" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L74" s="20"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" s="19"/>
       <c r="C75" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L75" s="20"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" s="19"/>
       <c r="C76" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L76" s="20"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" s="19"/>
       <c r="C77" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L77" s="20"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" s="19"/>
       <c r="C78" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L78" s="20"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" s="19"/>
       <c r="C79" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L79" s="20"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" s="19"/>
       <c r="C80" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L80" s="20"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" s="19"/>
       <c r="C81" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L81" s="20"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" s="19"/>
       <c r="C82" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L82" s="20"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" s="19"/>
       <c r="C83" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L83" s="20"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" s="19"/>
       <c r="C84" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L84" s="20"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" s="19"/>
       <c r="C85" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L85" s="20"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" s="19"/>
       <c r="C86" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L86" s="20"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" s="19"/>
       <c r="C87" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L87" s="20"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" s="19"/>
       <c r="C88" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L88" s="20"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B89" s="19"/>
       <c r="C89" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L89" s="20"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90" s="19"/>
       <c r="C90" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L90" s="20"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B91" s="19"/>
       <c r="C91" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L91" s="20"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B92" s="19"/>
       <c r="C92" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L92" s="20"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B93" s="19"/>
       <c r="C93" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L93" s="20"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B94" s="19"/>
       <c r="C94" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L94" s="20"/>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B95" s="19"/>
       <c r="C95" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L95" s="20"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B96" s="19"/>
       <c r="C96" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L96" s="20"/>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B97" s="19"/>
       <c r="C97" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L97" s="20"/>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B98" s="19"/>
       <c r="C98" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L98" s="20"/>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" s="19"/>
       <c r="C99" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L99" s="20"/>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B100" s="19"/>
       <c r="C100" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L100" s="20"/>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101" s="19"/>
       <c r="C101" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L101" s="20"/>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B102" s="19"/>
       <c r="C102" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L102" s="20"/>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B103" s="19"/>
       <c r="C103" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L103" s="20"/>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B104" s="19"/>
       <c r="C104" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L104" s="20"/>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B105" s="19"/>
       <c r="C105" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L105" s="20"/>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B106" s="19"/>
       <c r="C106" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L106" s="20"/>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B107" s="19"/>
       <c r="C107" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L107" s="20"/>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B108" s="19"/>
       <c r="C108" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L108" s="20"/>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B109" s="19"/>
       <c r="C109" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L109" s="20"/>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B110" s="19"/>
       <c r="C110" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L110" s="20"/>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B111" s="19"/>
       <c r="C111" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L111" s="20"/>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B112" s="19"/>
       <c r="C112" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L112" s="20"/>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B113" s="19"/>
       <c r="C113" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L113" s="20"/>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B114" s="19"/>
       <c r="C114" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L114" s="20"/>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B115" s="19"/>
       <c r="C115" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L115" s="20"/>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B116" s="19"/>
       <c r="C116" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L116" s="20"/>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B117" s="19"/>
       <c r="C117" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L117" s="20"/>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B118" s="19"/>
       <c r="C118" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L118" s="20"/>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B119" s="19"/>
       <c r="C119" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L119" s="20"/>
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B120" s="19"/>
       <c r="C120" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L120" s="20"/>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B121" s="19"/>
       <c r="C121" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L121" s="20"/>
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B122" s="19"/>
       <c r="C122" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L122" s="20"/>
     </row>
     <row r="123" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B123" s="19"/>
       <c r="C123" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L123" s="20"/>
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B124" s="19"/>
       <c r="C124" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L124" s="20"/>
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B125" s="19"/>
       <c r="C125" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L125" s="20"/>
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B126" s="19"/>
       <c r="C126" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L126" s="20"/>
     </row>
     <row r="127" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B127" s="19"/>
       <c r="C127" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L127" s="20"/>
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B128" s="19"/>
       <c r="C128" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L128" s="20"/>
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B129" s="19"/>
       <c r="C129" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L129" s="20"/>
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B130" s="19"/>
       <c r="C130" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L130" s="20"/>
     </row>
     <row r="131" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B131" s="19"/>
       <c r="C131" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L131" s="20"/>
     </row>
     <row r="132" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B132" s="19"/>
       <c r="C132" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L132" s="20"/>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B133" s="19"/>
       <c r="C133" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L133" s="20"/>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B134" s="19"/>
       <c r="C134" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L134" s="20"/>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B135" s="19"/>
       <c r="C135" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L135" s="20"/>
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B136" s="19"/>
       <c r="C136" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L136" s="20"/>
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B137" s="19"/>
       <c r="C137" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L137" s="20"/>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B138" s="19"/>
       <c r="C138" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L138" s="20"/>
     </row>
     <row r="139" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B139" s="19"/>
       <c r="C139" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L139" s="20"/>
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B140" s="19"/>
       <c r="C140" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L140" s="20"/>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B141" s="19"/>
       <c r="C141" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L141" s="20"/>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B142" s="19"/>
       <c r="C142" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L142" s="20"/>
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B143" s="19"/>
       <c r="C143" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L143" s="20"/>
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B144" s="19"/>
       <c r="C144" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L144" s="20"/>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B145" s="19"/>
       <c r="C145" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L145" s="20"/>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B146" s="19"/>
       <c r="C146" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L146" s="20"/>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B147" s="19"/>
       <c r="C147" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L147" s="20"/>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B148" s="19"/>
       <c r="C148" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L148" s="20"/>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B149" s="19"/>
       <c r="C149" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L149" s="20"/>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B150" s="19"/>
       <c r="C150" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L150" s="20"/>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B151" s="19"/>
       <c r="C151" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L151" s="20"/>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B152" s="19"/>
       <c r="C152" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L152" s="20"/>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B153" s="19"/>
       <c r="C153" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L153" s="20"/>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B154" s="19"/>
       <c r="C154" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L154" s="20"/>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B155" s="19"/>
       <c r="C155" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L155" s="20"/>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B156" s="19"/>
       <c r="C156" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L156" s="20"/>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B157" s="19"/>
       <c r="C157" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L157" s="20"/>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B158" s="19"/>
       <c r="C158" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L158" s="20"/>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B159" s="19"/>
       <c r="C159" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L159" s="20"/>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B160" s="19"/>
       <c r="C160" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L160" s="20"/>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B161" s="19"/>
       <c r="C161" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L161" s="20"/>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B162" s="19"/>
       <c r="C162" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L162" s="20"/>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B163" s="19"/>
       <c r="C163" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L163" s="20"/>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B164" s="19"/>
       <c r="C164" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L164" s="20"/>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B165" s="19"/>
       <c r="C165" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L165" s="20"/>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B166" s="19"/>
       <c r="C166" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L166" s="20"/>
     </row>
     <row r="167" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B167" s="19"/>
       <c r="C167" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L167" s="20"/>
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B168" s="19"/>
       <c r="C168" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L168" s="20"/>
     </row>
     <row r="169" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B169" s="19"/>
       <c r="C169" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L169" s="20"/>
     </row>
     <row r="170" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B170" s="19"/>
       <c r="C170" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L170" s="20"/>
     </row>
     <row r="171" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B171" s="19"/>
       <c r="C171" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L171" s="20"/>
     </row>
     <row r="172" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B172" s="19"/>
       <c r="C172" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L172" s="20"/>
     </row>
     <row r="173" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B173" s="19"/>
       <c r="C173" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L173" s="20"/>
     </row>
     <row r="174" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B174" s="19"/>
       <c r="C174" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L174" s="20"/>
     </row>
     <row r="175" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B175" s="19"/>
       <c r="C175" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L175" s="20"/>
     </row>
     <row r="176" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B176" s="19"/>
       <c r="C176" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L176" s="20"/>
     </row>
     <row r="177" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B177" s="19"/>
       <c r="C177" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L177" s="20"/>
     </row>
     <row r="178" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B178" s="19"/>
       <c r="C178" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L178" s="20"/>
     </row>
     <row r="179" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B179" s="19"/>
       <c r="C179" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L179" s="20"/>
     </row>
     <row r="180" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B180" s="19"/>
       <c r="C180" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L180" s="20"/>
     </row>
     <row r="181" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B181" s="19"/>
       <c r="C181" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L181" s="20"/>
     </row>
     <row r="182" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B182" s="19"/>
       <c r="C182" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L182" s="20"/>
     </row>
     <row r="183" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B183" s="19"/>
       <c r="C183" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L183" s="20"/>
     </row>
     <row r="184" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B184" s="19"/>
       <c r="C184" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L184" s="20"/>
     </row>
     <row r="185" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B185" s="19"/>
       <c r="C185" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L185" s="20"/>
     </row>
     <row r="186" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B186" s="19"/>
       <c r="C186" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L186" s="20"/>
     </row>
     <row r="187" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B187" s="19"/>
       <c r="C187" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L187" s="20"/>
     </row>
     <row r="188" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B188" s="19"/>
       <c r="C188" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L188" s="20"/>
     </row>
     <row r="189" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B189" s="19"/>
       <c r="C189" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L189" s="20"/>
     </row>
     <row r="190" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B190" s="19"/>
       <c r="C190" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L190" s="20"/>
     </row>
     <row r="191" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B191" s="19"/>
       <c r="C191" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L191" s="20"/>
     </row>
     <row r="192" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B192" s="19"/>
       <c r="C192" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L192" s="20"/>
     </row>
     <row r="193" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B193" s="19"/>
       <c r="C193" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L193" s="20"/>
     </row>
     <row r="194" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B194" s="19"/>
       <c r="C194" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L194" s="20"/>
     </row>
     <row r="195" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B195" s="19"/>
       <c r="C195" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L195" s="20"/>
     </row>
     <row r="196" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B196" s="19"/>
       <c r="C196" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L196" s="20"/>
     </row>
     <row r="197" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B197" s="19"/>
       <c r="C197" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L197" s="20"/>
     </row>
     <row r="198" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B198" s="19"/>
       <c r="C198" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L198" s="20"/>
     </row>
     <row r="199" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B199" s="19"/>
       <c r="C199" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L199" s="20"/>
     </row>
     <row r="200" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B200" s="19"/>
       <c r="C200" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L200" s="20"/>
     </row>
     <row r="201" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B201" s="19"/>
       <c r="C201" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L201" s="20"/>
     </row>
     <row r="202" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B202" s="19"/>
       <c r="C202" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L202" s="20"/>
     </row>
     <row r="203" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B203" s="19"/>
       <c r="C203" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L203" s="20"/>
     </row>
     <row r="204" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B204" s="19"/>
       <c r="C204" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L204" s="20"/>
     </row>
     <row r="205" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B205" s="19"/>
       <c r="C205" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L205" s="20"/>
     </row>
     <row r="206" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B206" s="19"/>
       <c r="C206" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L206" s="20"/>
     </row>
     <row r="207" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B207" s="19"/>
       <c r="C207" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L207" s="20"/>
     </row>
     <row r="208" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B208" s="19"/>
       <c r="C208" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L208" s="20"/>
     </row>
     <row r="209" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B209" s="19"/>
       <c r="C209" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L209" s="20"/>
     </row>
     <row r="210" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B210" s="19"/>
       <c r="C210" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L210" s="20"/>
     </row>
     <row r="211" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B211" s="19"/>
       <c r="C211" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L211" s="20"/>
     </row>
     <row r="212" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B212" s="19"/>
       <c r="C212" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L212" s="20"/>
     </row>
     <row r="213" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B213" s="19"/>
       <c r="C213" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L213" s="20"/>
     </row>
     <row r="214" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B214" s="19"/>
       <c r="C214" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L214" s="20"/>
     </row>
     <row r="215" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B215" s="19"/>
       <c r="C215" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L215" s="20"/>
     </row>
     <row r="216" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B216" s="19"/>
       <c r="C216" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L216" s="20"/>
     </row>
     <row r="217" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B217" s="19"/>
       <c r="C217" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L217" s="20"/>
     </row>
     <row r="218" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B218" s="19"/>
       <c r="C218" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L218" s="20"/>
     </row>
     <row r="219" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B219" s="19"/>
       <c r="C219" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L219" s="20"/>
     </row>
     <row r="220" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B220" s="19"/>
       <c r="C220" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L220" s="20"/>
     </row>
     <row r="221" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B221" s="19"/>
       <c r="C221" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L221" s="20"/>
     </row>
     <row r="222" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B222" s="19"/>
       <c r="C222" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L222" s="20"/>
     </row>
     <row r="223" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B223" s="19"/>
       <c r="C223" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L223" s="20"/>
     </row>
     <row r="224" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B224" s="19"/>
       <c r="C224" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L224" s="20"/>
     </row>
     <row r="225" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B225" s="19"/>
       <c r="C225" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L225" s="20"/>
     </row>
     <row r="226" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B226" s="19"/>
       <c r="C226" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L226" s="20"/>
     </row>
     <row r="227" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B227" s="19"/>
       <c r="C227" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L227" s="20"/>
     </row>
     <row r="228" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B228" s="19"/>
       <c r="C228" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L228" s="20"/>
     </row>
     <row r="229" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B229" s="19"/>
       <c r="C229" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L229" s="20"/>
     </row>
     <row r="230" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B230" s="19"/>
       <c r="C230" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L230" s="20"/>
     </row>
     <row r="231" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B231" s="19"/>
       <c r="C231" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L231" s="20"/>
     </row>
     <row r="232" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B232" s="19"/>
       <c r="C232" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L232" s="20"/>
     </row>
     <row r="233" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B233" s="19"/>
       <c r="C233" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L233" s="20"/>
     </row>
     <row r="234" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B234" s="19"/>
       <c r="C234" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L234" s="20"/>
     </row>
     <row r="235" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B235" s="19"/>
       <c r="C235" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L235" s="20"/>
     </row>
     <row r="236" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B236" s="19"/>
       <c r="C236" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L236" s="20"/>
     </row>
     <row r="237" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B237" s="19"/>
       <c r="C237" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L237" s="20"/>
     </row>
     <row r="238" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B238" s="19"/>
       <c r="C238" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L238" s="20"/>
     </row>
     <row r="239" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B239" s="19"/>
       <c r="C239" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L239" s="20"/>
     </row>
     <row r="240" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B240" s="19"/>
       <c r="C240" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L240" s="20"/>
     </row>
     <row r="241" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B241" s="19"/>
       <c r="C241" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L241" s="20"/>
     </row>
     <row r="242" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B242" s="19"/>
       <c r="C242" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L242" s="20"/>
     </row>
     <row r="243" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B243" s="19"/>
       <c r="C243" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L243" s="20"/>
     </row>
     <row r="244" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B244" s="19"/>
       <c r="C244" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L244" s="20"/>
     </row>
     <row r="245" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B245" s="19"/>
       <c r="C245" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L245" s="20"/>
     </row>
     <row r="246" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B246" s="19"/>
       <c r="C246" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L246" s="20"/>
     </row>
     <row r="247" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B247" s="19"/>
       <c r="C247" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L247" s="20"/>
     </row>
     <row r="248" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B248" s="19"/>
       <c r="C248" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L248" s="20"/>
     </row>
     <row r="249" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B249" s="19"/>
       <c r="C249" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L249" s="20"/>
     </row>
     <row r="250" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B250" s="19"/>
       <c r="C250" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L250" s="20"/>
     </row>
     <row r="251" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B251" s="19"/>
       <c r="C251" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L251" s="20"/>
     </row>
     <row r="252" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B252" s="19"/>
       <c r="C252" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L252" s="20"/>
     </row>
     <row r="253" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B253" s="19"/>
       <c r="C253" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L253" s="20"/>
     </row>
     <row r="254" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B254" s="19"/>
       <c r="C254" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L254" s="20"/>
     </row>
     <row r="255" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B255" s="19"/>
       <c r="C255" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L255" s="20"/>
     </row>
     <row r="256" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B256" s="19"/>
       <c r="C256" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L256" s="20"/>
     </row>
     <row r="257" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B257" s="19"/>
       <c r="C257" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L257" s="20"/>
     </row>
     <row r="258" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B258" s="19"/>
       <c r="C258" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L258" s="20"/>
     </row>
     <row r="259" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B259" s="19"/>
       <c r="C259" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L259" s="20"/>
     </row>
     <row r="260" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B260" s="19"/>
       <c r="C260" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L260" s="20"/>
     </row>
     <row r="261" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B261" s="19"/>
       <c r="C261" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L261" s="20"/>
     </row>
     <row r="262" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B262" s="19"/>
       <c r="C262" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L262" s="20"/>
     </row>
     <row r="263" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B263" s="19"/>
       <c r="C263" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L263" s="20"/>
     </row>
     <row r="264" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B264" s="19"/>
       <c r="C264" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L264" s="20"/>
     </row>
     <row r="265" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B265" s="19"/>
       <c r="C265" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L265" s="20"/>
     </row>
     <row r="266" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B266" s="19"/>
       <c r="C266" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L266" s="20"/>
     </row>
     <row r="267" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B267" s="19"/>
       <c r="C267" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L267" s="20"/>
     </row>
     <row r="268" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B268" s="19"/>
       <c r="C268" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L268" s="20"/>
     </row>
     <row r="269" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B269" s="19"/>
       <c r="C269" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L269" s="20"/>
     </row>
     <row r="270" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B270" s="19"/>
       <c r="C270" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L270" s="20"/>
     </row>
     <row r="271" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B271" s="19"/>
       <c r="C271" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L271" s="20"/>
     </row>
     <row r="272" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B272" s="19"/>
       <c r="C272" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L272" s="20"/>
     </row>
     <row r="273" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B273" s="19"/>
       <c r="C273" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L273" s="20"/>
     </row>
     <row r="274" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B274" s="19"/>
       <c r="C274" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L274" s="20"/>
     </row>
     <row r="275" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B275" s="19"/>
       <c r="C275" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L275" s="20"/>
     </row>
     <row r="276" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B276" s="19"/>
       <c r="C276" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L276" s="20"/>
     </row>
     <row r="277" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B277" s="19"/>
       <c r="C277" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L277" s="20"/>
     </row>
     <row r="278" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B278" s="19"/>
       <c r="C278" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L278" s="20"/>
     </row>
     <row r="279" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B279" s="19"/>
       <c r="C279" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L279" s="20"/>
     </row>
     <row r="280" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B280" s="19"/>
       <c r="C280" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L280" s="20"/>
     </row>
     <row r="281" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B281" s="19"/>
       <c r="C281" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L281" s="20"/>
     </row>
     <row r="282" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B282" s="19"/>
       <c r="C282" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L282" s="20"/>
     </row>
     <row r="283" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B283" s="19"/>
       <c r="C283" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L283" s="20"/>
     </row>
     <row r="284" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B284" s="19"/>
       <c r="C284" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L284" s="20"/>
     </row>
     <row r="285" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B285" s="19"/>
       <c r="C285" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L285" s="20"/>
     </row>
     <row r="286" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B286" s="19"/>
       <c r="C286" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L286" s="20"/>
     </row>
     <row r="287" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B287" s="19"/>
       <c r="C287" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L287" s="20"/>
     </row>
     <row r="288" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B288" s="19"/>
       <c r="C288" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L288" s="20"/>
     </row>
     <row r="289" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B289" s="19"/>
       <c r="C289" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L289" s="20"/>
     </row>
     <row r="290" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B290" s="19"/>
       <c r="C290" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L290" s="20"/>
     </row>
     <row r="291" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B291" s="19"/>
       <c r="C291" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L291" s="20"/>
     </row>
     <row r="292" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B292" s="19"/>
       <c r="C292" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L292" s="20"/>
     </row>
     <row r="293" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B293" s="19"/>
       <c r="C293" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L293" s="20"/>
     </row>
     <row r="294" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B294" s="19"/>
       <c r="C294" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L294" s="20"/>
     </row>
     <row r="295" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B295" s="19"/>
       <c r="C295" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L295" s="20"/>
     </row>
     <row r="296" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B296" s="19"/>
       <c r="C296" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L296" s="20"/>
     </row>
     <row r="297" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B297" s="19"/>
       <c r="C297" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L297" s="20"/>
     </row>
     <row r="298" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B298" s="19"/>
       <c r="C298" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L298" s="20"/>
     </row>
     <row r="299" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B299" s="19"/>
       <c r="C299" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L299" s="20"/>
     </row>
     <row r="300" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B300" s="19"/>
       <c r="C300" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L300" s="20"/>
     </row>
     <row r="301" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B301" s="19"/>
       <c r="C301" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L301" s="20"/>
     </row>
     <row r="302" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B302" s="19"/>
       <c r="C302" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L302" s="20"/>
     </row>
     <row r="303" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B303" s="19"/>
       <c r="C303" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L303" s="20"/>
     </row>
     <row r="304" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B304" s="19"/>
       <c r="C304" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L304" s="20"/>
     </row>
     <row r="305" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B305" s="19"/>
       <c r="C305" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L305" s="20"/>
     </row>
     <row r="306" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B306" s="19"/>
       <c r="C306" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L306" s="20"/>
     </row>
     <row r="307" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B307" s="19"/>
       <c r="C307" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L307" s="20"/>
     </row>
     <row r="308" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B308" s="19"/>
       <c r="C308" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L308" s="20"/>
     </row>
     <row r="309" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B309" s="19"/>
       <c r="C309" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L309" s="20"/>
     </row>
     <row r="310" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B310" s="19"/>
       <c r="C310" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L310" s="20"/>
     </row>
     <row r="311" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B311" s="19"/>
       <c r="C311" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L311" s="20"/>
     </row>
     <row r="312" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B312" s="19"/>
       <c r="C312" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L312" s="20"/>
     </row>
     <row r="313" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B313" s="19"/>
       <c r="C313" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L313" s="20"/>
     </row>
     <row r="314" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B314" s="19"/>
       <c r="C314" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L314" s="20"/>
     </row>
     <row r="315" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B315" s="19"/>
       <c r="C315" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L315" s="20"/>
     </row>
     <row r="316" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B316" s="19"/>
       <c r="C316" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L316" s="20"/>
     </row>
     <row r="317" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B317" s="19"/>
       <c r="C317" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L317" s="20"/>
     </row>
     <row r="318" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B318" s="19"/>
       <c r="C318" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L318" s="20"/>
     </row>
     <row r="319" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B319" s="19"/>
       <c r="C319" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L319" s="20"/>
     </row>
     <row r="320" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B320" s="19"/>
       <c r="C320" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L320" s="20"/>
     </row>
     <row r="321" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B321" s="19"/>
       <c r="C321" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L321" s="20"/>
     </row>
     <row r="322" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B322" s="19"/>
       <c r="C322" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L322" s="20"/>
     </row>
     <row r="323" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B323" s="19"/>
       <c r="C323" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L323" s="20"/>
     </row>
     <row r="324" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B324" s="19"/>
       <c r="C324" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L324" s="20"/>
     </row>
     <row r="325" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B325" s="19"/>
       <c r="C325" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L325" s="20"/>
     </row>
     <row r="326" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B326" s="19"/>
       <c r="C326" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L326" s="20"/>
     </row>
     <row r="327" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B327" s="19"/>
       <c r="C327" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L327" s="20"/>
     </row>
     <row r="328" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B328" s="19"/>
       <c r="C328" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L328" s="20"/>
     </row>
     <row r="329" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B329" s="19"/>
       <c r="C329" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L329" s="20"/>
     </row>
     <row r="330" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B330" s="19"/>
       <c r="C330" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L330" s="20"/>
     </row>
     <row r="331" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B331" s="19"/>
       <c r="C331" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L331" s="20"/>
     </row>
     <row r="332" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B332" s="19"/>
       <c r="C332" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L332" s="20"/>
     </row>
     <row r="333" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B333" s="19"/>
       <c r="C333" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L333" s="20"/>
     </row>
     <row r="334" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B334" s="19"/>
       <c r="C334" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L334" s="20"/>
     </row>
     <row r="335" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B335" s="19"/>
       <c r="C335" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L335" s="20"/>
     </row>
     <row r="336" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B336" s="19"/>
       <c r="C336" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L336" s="20"/>
     </row>
     <row r="337" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B337" s="19"/>
       <c r="C337" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L337" s="20"/>
     </row>
     <row r="338" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B338" s="19"/>
       <c r="C338" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L338" s="20"/>
     </row>
     <row r="339" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B339" s="19"/>
       <c r="C339" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L339" s="20"/>
     </row>
     <row r="340" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B340" s="19"/>
       <c r="C340" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L340" s="20"/>
     </row>
     <row r="341" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B341" s="19"/>
       <c r="C341" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L341" s="20"/>
     </row>
     <row r="342" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B342" s="19"/>
       <c r="C342" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L342" s="20"/>
     </row>
     <row r="343" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B343" s="19"/>
       <c r="C343" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L343" s="20"/>
     </row>
     <row r="344" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B344" s="19"/>
       <c r="C344" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L344" s="20"/>
     </row>
     <row r="345" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B345" s="19"/>
       <c r="C345" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L345" s="20"/>
     </row>
     <row r="346" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B346" s="19"/>
       <c r="C346" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L346" s="20"/>
     </row>
     <row r="347" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B347" s="19"/>
       <c r="C347" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L347" s="20"/>
     </row>
     <row r="348" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B348" s="19"/>
       <c r="C348" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L348" s="20"/>
     </row>
     <row r="349" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B349" s="19"/>
       <c r="C349" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L349" s="20"/>
     </row>
     <row r="350" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B350" s="19"/>
       <c r="C350" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L350" s="20"/>
     </row>
     <row r="351" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B351" s="19"/>
       <c r="C351" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L351" s="20"/>
     </row>
     <row r="352" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B352" s="19"/>
       <c r="C352" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L352" s="20"/>
     </row>
     <row r="353" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B353" s="19"/>
       <c r="C353" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L353" s="20"/>
     </row>
     <row r="354" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B354" s="19"/>
       <c r="C354" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L354" s="20"/>
     </row>
     <row r="355" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B355" s="19"/>
       <c r="C355" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L355" s="20"/>
     </row>
     <row r="356" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B356" s="19"/>
       <c r="C356" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L356" s="20"/>
     </row>
     <row r="357" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B357" s="19"/>
       <c r="C357" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L357" s="20"/>
     </row>
     <row r="358" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B358" s="19"/>
       <c r="C358" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L358" s="20"/>
     </row>
     <row r="359" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B359" s="19"/>
       <c r="C359" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L359" s="20"/>
     </row>
     <row r="360" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B360" s="19"/>
       <c r="C360" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L360" s="20"/>
     </row>
     <row r="361" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B361" s="19"/>
       <c r="C361" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L361" s="20"/>
     </row>
     <row r="362" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B362" s="19"/>
       <c r="C362" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L362" s="20"/>
     </row>
     <row r="363" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B363" s="19"/>
       <c r="C363" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L363" s="20"/>
     </row>
     <row r="364" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B364" s="19"/>
       <c r="C364" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L364" s="20"/>
     </row>
     <row r="365" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B365" s="19"/>
       <c r="C365" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L365" s="20"/>
     </row>
     <row r="366" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B366" s="19"/>
       <c r="C366" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L366" s="20"/>
     </row>
     <row r="367" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B367" s="19"/>
       <c r="C367" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L367" s="20"/>
     </row>
     <row r="368" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B368" s="19"/>
       <c r="C368" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L368" s="20"/>
     </row>
     <row r="369" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B369" s="19"/>
       <c r="C369" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L369" s="20"/>
     </row>
     <row r="370" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B370" s="19"/>
       <c r="C370" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L370" s="20"/>
     </row>
     <row r="371" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B371" s="19"/>
       <c r="C371" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L371" s="20"/>
     </row>
     <row r="372" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B372" s="19"/>
       <c r="C372" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L372" s="20"/>
     </row>
     <row r="373" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B373" s="19"/>
       <c r="C373" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L373" s="20"/>
     </row>
     <row r="374" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B374" s="19"/>
       <c r="C374" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L374" s="20"/>
     </row>
     <row r="375" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B375" s="19"/>
       <c r="C375" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L375" s="20"/>
     </row>
     <row r="376" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B376" s="19"/>
       <c r="C376" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L376" s="20"/>
     </row>
     <row r="377" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B377" s="19"/>
       <c r="C377" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L377" s="20"/>
     </row>
     <row r="378" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B378" s="19"/>
       <c r="C378" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L378" s="20"/>
     </row>
     <row r="379" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B379" s="19"/>
       <c r="C379" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L379" s="20"/>
     </row>
     <row r="380" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B380" s="19"/>
       <c r="C380" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L380" s="20"/>
     </row>
     <row r="381" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B381" s="19"/>
       <c r="C381" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L381" s="20"/>
     </row>
     <row r="382" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B382" s="19"/>
       <c r="C382" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L382" s="20"/>
     </row>
     <row r="383" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B383" s="19"/>
       <c r="C383" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L383" s="20"/>
     </row>
     <row r="384" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B384" s="19"/>
       <c r="C384" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L384" s="20"/>
     </row>
     <row r="385" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B385" s="19"/>
       <c r="C385" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L385" s="20"/>
     </row>
     <row r="386" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B386" s="19"/>
       <c r="C386" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L386" s="20"/>
     </row>
     <row r="387" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B387" s="19"/>
       <c r="C387" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L387" s="20"/>
     </row>
     <row r="388" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B388" s="19"/>
       <c r="C388" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L388" s="20"/>
     </row>
     <row r="389" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B389" s="19"/>
       <c r="C389" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L389" s="20"/>
     </row>
     <row r="390" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B390" s="19"/>
       <c r="C390" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L390" s="20"/>
     </row>
     <row r="391" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B391" s="19"/>
       <c r="C391" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L391" s="20"/>
     </row>
     <row r="392" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B392" s="19"/>
       <c r="C392" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L392" s="20"/>
     </row>
     <row r="393" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B393" s="19"/>
       <c r="C393" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L393" s="20"/>
     </row>
     <row r="394" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B394" s="19"/>
       <c r="C394" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L394" s="20"/>
     </row>
     <row r="395" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B395" s="19"/>
       <c r="C395" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L395" s="20"/>
     </row>
     <row r="396" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B396" s="19"/>
       <c r="C396" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L396" s="20"/>
     </row>
     <row r="397" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B397" s="19"/>
       <c r="C397" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L397" s="20"/>
     </row>
     <row r="398" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B398" s="19"/>
       <c r="C398" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L398" s="20"/>
     </row>
     <row r="399" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B399" s="19"/>
       <c r="C399" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L399" s="20"/>
     </row>
     <row r="400" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B400" s="19"/>
       <c r="C400" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L400" s="20"/>
     </row>
     <row r="401" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B401" s="19"/>
       <c r="C401" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L401" s="20"/>
     </row>
     <row r="402" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B402" s="19"/>
       <c r="C402" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L402" s="20"/>
     </row>
     <row r="403" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B403" s="19"/>
       <c r="C403" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L403" s="20"/>
     </row>
     <row r="404" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B404" s="19"/>
       <c r="C404" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L404" s="20"/>
     </row>
     <row r="405" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B405" s="19"/>
       <c r="C405" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L405" s="20"/>
     </row>
     <row r="406" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B406" s="19"/>
       <c r="C406" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L406" s="20"/>
     </row>
     <row r="407" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B407" s="19"/>
       <c r="C407" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L407" s="20"/>
     </row>
     <row r="408" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B408" s="19"/>
       <c r="C408" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L408" s="20"/>
     </row>
     <row r="409" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B409" s="19"/>
       <c r="C409" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L409" s="20"/>
     </row>
     <row r="410" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B410" s="19"/>
       <c r="C410" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L410" s="20"/>
     </row>
     <row r="411" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B411" s="19"/>
       <c r="C411" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L411" s="20"/>
     </row>
     <row r="412" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B412" s="19"/>
       <c r="C412" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L412" s="20"/>
     </row>
     <row r="413" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B413" s="19"/>
       <c r="C413" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L413" s="20"/>
     </row>
     <row r="414" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B414" s="19"/>
       <c r="C414" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L414" s="20"/>
     </row>
     <row r="415" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B415" s="19"/>
       <c r="C415" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L415" s="20"/>
     </row>
     <row r="416" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B416" s="19"/>
       <c r="C416" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L416" s="20"/>
     </row>
     <row r="417" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B417" s="19"/>
       <c r="C417" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L417" s="20"/>
     </row>
     <row r="418" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B418" s="19"/>
       <c r="C418" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L418" s="20"/>
     </row>
     <row r="419" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B419" s="19"/>
       <c r="C419" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L419" s="20"/>
     </row>
     <row r="420" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B420" s="19"/>
       <c r="C420" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L420" s="20"/>
     </row>
     <row r="421" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B421" s="19"/>
       <c r="C421" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L421" s="20"/>
     </row>
     <row r="422" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B422" s="19"/>
       <c r="C422" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L422" s="20"/>
     </row>
     <row r="423" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B423" s="19"/>
       <c r="C423" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L423" s="20"/>
     </row>
     <row r="424" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B424" s="19"/>
       <c r="C424" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L424" s="20"/>
     </row>
     <row r="425" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B425" s="19"/>
       <c r="C425" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L425" s="20"/>
     </row>
     <row r="426" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B426" s="19"/>
       <c r="C426" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L426" s="20"/>
     </row>
     <row r="427" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B427" s="19"/>
       <c r="C427" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L427" s="20"/>
     </row>
     <row r="428" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B428" s="19"/>
       <c r="C428" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L428" s="20"/>
     </row>
     <row r="429" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B429" s="19"/>
       <c r="C429" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L429" s="20"/>
     </row>
     <row r="430" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B430" s="19"/>
       <c r="C430" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L430" s="20"/>
     </row>
     <row r="431" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B431" s="19"/>
       <c r="C431" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L431" s="20"/>
     </row>
     <row r="432" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B432" s="19"/>
       <c r="C432" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L432" s="20"/>
     </row>
     <row r="433" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B433" s="19"/>
       <c r="C433" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L433" s="20"/>
     </row>
     <row r="434" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B434" s="19"/>
       <c r="C434" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L434" s="20"/>
     </row>
     <row r="435" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B435" s="19"/>
       <c r="C435" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L435" s="20"/>
     </row>
     <row r="436" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B436" s="19"/>
       <c r="C436" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L436" s="20"/>
     </row>
     <row r="437" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B437" s="19"/>
       <c r="C437" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L437" s="20"/>
     </row>
     <row r="438" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B438" s="19"/>
       <c r="C438" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L438" s="20"/>
     </row>
     <row r="439" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B439" s="19"/>
       <c r="C439" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L439" s="20"/>
     </row>
     <row r="440" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B440" s="19"/>
       <c r="C440" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L440" s="20"/>
     </row>
     <row r="441" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B441" s="19"/>
       <c r="C441" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L441" s="20"/>
     </row>
     <row r="442" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B442" s="19"/>
       <c r="C442" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L442" s="20"/>
     </row>
     <row r="443" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B443" s="19"/>
       <c r="C443" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L443" s="20"/>
     </row>
     <row r="444" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B444" s="19"/>
       <c r="C444" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L444" s="20"/>
     </row>
     <row r="445" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B445" s="19"/>
       <c r="C445" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L445" s="20"/>
     </row>
     <row r="446" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B446" s="19"/>
       <c r="C446" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L446" s="20"/>
     </row>
     <row r="447" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B447" s="19"/>
       <c r="C447" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L447" s="20"/>
     </row>
     <row r="448" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B448" s="19"/>
       <c r="C448" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L448" s="20"/>
     </row>
     <row r="449" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B449" s="19"/>
       <c r="C449" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L449" s="20"/>
     </row>
     <row r="450" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B450" s="19"/>
       <c r="C450" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L450" s="20"/>
     </row>
     <row r="451" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B451" s="19"/>
       <c r="C451" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L451" s="20"/>
     </row>
     <row r="452" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B452" s="19"/>
       <c r="C452" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L452" s="20"/>
     </row>
     <row r="453" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B453" s="19"/>
       <c r="C453" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L453" s="20"/>
     </row>
     <row r="454" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B454" s="19"/>
       <c r="C454" s="15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L454" s="20"/>
     </row>
     <row r="455" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B455" s="19"/>
       <c r="C455" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L455" s="20"/>
     </row>
     <row r="456" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B456" s="19"/>
       <c r="C456" s="15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L456" s="20"/>
     </row>
     <row r="457" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B457" s="19"/>
       <c r="C457" s="15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L457" s="20"/>
     </row>
     <row r="458" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B458" s="19"/>
       <c r="C458" s="15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L458" s="20"/>
     </row>
     <row r="459" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B459" s="19"/>
       <c r="C459" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L459" s="20"/>
     </row>
     <row r="460" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B460" s="19"/>
       <c r="C460" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L460" s="20"/>
     </row>
     <row r="461" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B461" s="19"/>
       <c r="C461" s="15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L461" s="20"/>
     </row>
     <row r="462" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B462" s="19"/>
       <c r="C462" s="15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L462" s="20"/>
     </row>
     <row r="463" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B463" s="19"/>
       <c r="C463" s="15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L463" s="20"/>
     </row>
     <row r="464" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B464" s="19"/>
       <c r="C464" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L464" s="20"/>
     </row>
     <row r="465" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B465" s="19"/>
       <c r="C465" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L465" s="20"/>
     </row>
     <row r="466" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B466" s="19"/>
       <c r="C466" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L466" s="20"/>
     </row>
     <row r="467" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B467" s="19"/>
       <c r="C467" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L467" s="20"/>
     </row>
     <row r="468" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B468" s="19"/>
       <c r="C468" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L468" s="20"/>
     </row>
     <row r="469" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B469" s="19"/>
       <c r="C469" s="15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L469" s="20"/>
     </row>
     <row r="470" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B470" s="19"/>
       <c r="C470" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L470" s="20"/>
     </row>
     <row r="471" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B471" s="19"/>
       <c r="C471" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L471" s="20"/>
     </row>
     <row r="472" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B472" s="19"/>
       <c r="C472" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L472" s="20"/>
     </row>
     <row r="473" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B473" s="19"/>
       <c r="C473" s="15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L473" s="20"/>
     </row>
     <row r="474" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B474" s="19"/>
       <c r="C474" s="15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L474" s="20"/>
     </row>
     <row r="475" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B475" s="19"/>
       <c r="C475" s="15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L475" s="20"/>
     </row>
     <row r="476" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B476" s="19"/>
       <c r="C476" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L476" s="20"/>
     </row>
     <row r="477" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B477" s="19"/>
       <c r="C477" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L477" s="20"/>
     </row>
     <row r="478" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B478" s="19"/>
       <c r="C478" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L478" s="20"/>
     </row>
     <row r="479" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B479" s="19"/>
       <c r="C479" s="15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L479" s="20"/>
     </row>
     <row r="480" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B480" s="19"/>
       <c r="C480" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L480" s="20"/>
     </row>
     <row r="481" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B481" s="19"/>
       <c r="C481" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L481" s="20"/>
     </row>
     <row r="482" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B482" s="19"/>
       <c r="C482" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L482" s="20"/>
     </row>
     <row r="483" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B483" s="19"/>
       <c r="C483" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L483" s="20"/>
     </row>
     <row r="484" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B484" s="19"/>
       <c r="C484" s="15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L484" s="20"/>
     </row>
     <row r="485" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B485" s="19"/>
       <c r="C485" s="15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L485" s="20"/>
     </row>
     <row r="486" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B486" s="19"/>
       <c r="C486" s="15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L486" s="20"/>
     </row>
     <row r="487" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B487" s="19"/>
       <c r="C487" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L487" s="20"/>
     </row>
     <row r="488" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B488" s="19"/>
       <c r="C488" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L488" s="20"/>
     </row>
     <row r="489" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B489" s="19"/>
       <c r="C489" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L489" s="20"/>
     </row>
     <row r="490" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B490" s="19"/>
       <c r="C490" s="15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L490" s="20"/>
     </row>
     <row r="491" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B491" s="19"/>
       <c r="C491" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L491" s="20"/>
     </row>
     <row r="492" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B492" s="19"/>
       <c r="C492" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L492" s="20"/>
     </row>
     <row r="493" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B493" s="19"/>
       <c r="C493" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L493" s="20"/>
     </row>
     <row r="494" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B494" s="19"/>
       <c r="C494" s="15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L494" s="20"/>
     </row>
     <row r="495" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B495" s="19"/>
       <c r="C495" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L495" s="20"/>
     </row>
     <row r="496" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B496" s="19"/>
       <c r="C496" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L496" s="20"/>
     </row>
     <row r="497" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B497" s="19"/>
       <c r="C497" s="15" t="s">
-        <v>477</v>
+        <v>612</v>
       </c>
       <c r="L497" s="20"/>
     </row>
     <row r="498" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B498" s="19"/>
       <c r="C498" s="15" t="s">
-        <v>478</v>
+        <v>613</v>
       </c>
       <c r="L498" s="20"/>
     </row>
     <row r="499" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B499" s="19"/>
       <c r="C499" s="15" t="s">
-        <v>479</v>
+        <v>614</v>
       </c>
       <c r="L499" s="20"/>
     </row>
     <row r="500" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B500" s="19"/>
       <c r="C500" s="15" t="s">
-        <v>480</v>
+        <v>615</v>
       </c>
       <c r="L500" s="20"/>
     </row>
     <row r="501" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B501" s="19"/>
       <c r="C501" s="15" t="s">
-        <v>481</v>
+        <v>616</v>
       </c>
       <c r="L501" s="20"/>
     </row>
     <row r="502" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B502" s="19"/>
       <c r="C502" s="15" t="s">
-        <v>482</v>
+        <v>617</v>
       </c>
       <c r="L502" s="20"/>
     </row>
     <row r="503" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B503" s="19"/>
       <c r="C503" s="15" t="s">
-        <v>483</v>
+        <v>618</v>
       </c>
       <c r="L503" s="20"/>
     </row>
     <row r="504" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B504" s="19"/>
       <c r="C504" s="15" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="L504" s="20"/>
     </row>
     <row r="505" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B505" s="19"/>
       <c r="C505" s="15" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="L505" s="20"/>
     </row>
     <row r="506" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B506" s="19"/>
       <c r="C506" s="15" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="L506" s="20"/>
     </row>
     <row r="507" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B507" s="19"/>
       <c r="C507" s="15" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="L507" s="20"/>
     </row>
     <row r="508" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B508" s="19"/>
       <c r="C508" s="15" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="L508" s="20"/>
     </row>
     <row r="509" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B509" s="19"/>
       <c r="C509" s="15" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="L509" s="20"/>
     </row>
     <row r="510" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B510" s="19"/>
       <c r="C510" s="15" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="L510" s="20"/>
     </row>
     <row r="511" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B511" s="19"/>
       <c r="C511" s="15" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="L511" s="20"/>
     </row>
     <row r="512" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B512" s="19"/>
       <c r="C512" s="15" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="L512" s="20"/>
     </row>
     <row r="513" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B513" s="19"/>
       <c r="C513" s="15" t="s">
-        <v>493</v>
+        <v>611</v>
       </c>
       <c r="L513" s="20"/>
     </row>
     <row r="514" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B514" s="19"/>
       <c r="C514" s="15" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="L514" s="20"/>
     </row>
     <row r="515" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B515" s="19"/>
       <c r="C515" s="15" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="L515" s="20"/>
     </row>
     <row r="516" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B516" s="19"/>
       <c r="C516" s="15" t="s">
-        <v>496</v>
+        <v>610</v>
       </c>
       <c r="L516" s="20"/>
     </row>
     <row r="517" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B517" s="19"/>
       <c r="C517" s="15" t="s">
-        <v>497</v>
+        <v>609</v>
       </c>
       <c r="L517" s="20"/>
     </row>
     <row r="518" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B518" s="19"/>
       <c r="C518" s="15" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="L518" s="20"/>
     </row>
     <row r="519" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B519" s="19"/>
       <c r="C519" s="15" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="L519" s="20"/>
     </row>
     <row r="520" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B520" s="19"/>
       <c r="C520" s="15" t="s">
-        <v>500</v>
+        <v>621</v>
       </c>
       <c r="L520" s="20"/>
     </row>
     <row r="521" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B521" s="19"/>
       <c r="C521" s="15" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="L521" s="20"/>
     </row>
     <row r="522" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B522" s="19"/>
       <c r="C522" s="15" t="s">
-        <v>502</v>
+        <v>620</v>
       </c>
       <c r="L522" s="20"/>
     </row>
     <row r="523" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B523" s="19"/>
       <c r="C523" s="15" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="L523" s="20"/>
     </row>
     <row r="524" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B524" s="19"/>
       <c r="C524" s="15" t="s">
-        <v>504</v>
+        <v>619</v>
       </c>
       <c r="L524" s="20"/>
     </row>
     <row r="525" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B525" s="19"/>
       <c r="C525" s="15" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="L525" s="20"/>
     </row>
     <row r="526" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B526" s="19"/>
       <c r="C526" s="15" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="L526" s="20"/>
     </row>
     <row r="527" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B527" s="19"/>
       <c r="C527" s="15" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="L527" s="20"/>
     </row>
     <row r="528" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B528" s="19"/>
       <c r="C528" s="15" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="L528" s="20"/>
     </row>
     <row r="529" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B529" s="19"/>
       <c r="C529" s="15" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="L529" s="20"/>
     </row>
     <row r="530" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B530" s="19"/>
       <c r="C530" s="15" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="L530" s="20"/>
     </row>
     <row r="531" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B531" s="19"/>
       <c r="C531" s="15" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="L531" s="20"/>
     </row>
     <row r="532" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B532" s="19"/>
       <c r="C532" s="15" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="L532" s="20"/>
     </row>
     <row r="533" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B533" s="19"/>
       <c r="C533" s="15" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="L533" s="20"/>
     </row>
     <row r="534" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B534" s="19"/>
       <c r="C534" s="15" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="L534" s="20"/>
     </row>
     <row r="535" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B535" s="19"/>
       <c r="C535" s="15" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="L535" s="20"/>
     </row>
     <row r="536" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B536" s="19"/>
       <c r="C536" s="15" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="L536" s="20"/>
     </row>
     <row r="537" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B537" s="19"/>
       <c r="C537" s="15" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="L537" s="20"/>
     </row>
     <row r="538" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B538" s="19"/>
       <c r="C538" s="15" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="L538" s="20"/>
     </row>
     <row r="539" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B539" s="19"/>
       <c r="C539" s="15" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="L539" s="20"/>
     </row>
     <row r="540" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B540" s="19"/>
       <c r="C540" s="15" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="L540" s="20"/>
     </row>
     <row r="541" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B541" s="19"/>
       <c r="C541" s="15" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="L541" s="20"/>
     </row>
     <row r="542" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B542" s="19"/>
       <c r="C542" s="15" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="L542" s="20"/>
     </row>
     <row r="543" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B543" s="19"/>
       <c r="C543" s="15" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="L543" s="20"/>
     </row>
     <row r="544" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B544" s="19"/>
       <c r="C544" s="15" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="L544" s="20"/>
     </row>
     <row r="545" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B545" s="19"/>
       <c r="C545" s="15" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="L545" s="20"/>
     </row>
     <row r="546" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B546" s="19"/>
       <c r="C546" s="15" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="L546" s="20"/>
     </row>
     <row r="547" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B547" s="19"/>
       <c r="C547" s="15" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="L547" s="20"/>
     </row>
     <row r="548" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B548" s="19"/>
       <c r="C548" s="15" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="L548" s="20"/>
     </row>
     <row r="549" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B549" s="19"/>
       <c r="C549" s="15" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="L549" s="20"/>
     </row>
     <row r="550" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B550" s="19"/>
       <c r="C550" s="15" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="L550" s="20"/>
     </row>
     <row r="551" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B551" s="19"/>
       <c r="C551" s="15" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="L551" s="20"/>
     </row>
     <row r="552" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B552" s="19"/>
       <c r="C552" s="15" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="L552" s="20"/>
     </row>
     <row r="553" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B553" s="19"/>
       <c r="C553" s="15" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="L553" s="20"/>
     </row>
     <row r="554" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B554" s="19"/>
       <c r="C554" s="15" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="L554" s="20"/>
     </row>
     <row r="555" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B555" s="19"/>
       <c r="C555" s="15" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="L555" s="20"/>
     </row>
     <row r="556" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B556" s="19"/>
       <c r="C556" s="15" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="L556" s="20"/>
     </row>
     <row r="557" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B557" s="19"/>
       <c r="C557" s="15" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="L557" s="20"/>
     </row>
     <row r="558" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B558" s="19"/>
       <c r="C558" s="15" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="L558" s="20"/>
     </row>
     <row r="559" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B559" s="19"/>
       <c r="C559" s="15" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="L559" s="20"/>
     </row>
     <row r="560" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B560" s="19"/>
       <c r="C560" s="15" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="L560" s="20"/>
     </row>
     <row r="561" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B561" s="19"/>
       <c r="C561" s="15" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="L561" s="20"/>
     </row>
     <row r="562" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B562" s="19"/>
       <c r="C562" s="15" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="L562" s="20"/>
     </row>
     <row r="563" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B563" s="19"/>
       <c r="C563" s="15" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="L563" s="20"/>
     </row>
     <row r="564" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B564" s="19"/>
       <c r="C564" s="15" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="L564" s="20"/>
     </row>
     <row r="565" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B565" s="19"/>
       <c r="C565" s="15" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="L565" s="20"/>
     </row>
     <row r="566" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B566" s="19"/>
       <c r="C566" s="15" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="L566" s="20"/>
     </row>
     <row r="567" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B567" s="19"/>
       <c r="C567" s="15" t="s">
-        <v>547</v>
+        <v>622</v>
       </c>
       <c r="L567" s="20"/>
     </row>
     <row r="568" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B568" s="19"/>
       <c r="C568" s="15" t="s">
-        <v>548</v>
+        <v>623</v>
       </c>
       <c r="L568" s="20"/>
     </row>
     <row r="569" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B569" s="19"/>
       <c r="C569" s="15" t="s">
-        <v>549</v>
+        <v>624</v>
       </c>
       <c r="L569" s="20"/>
     </row>
     <row r="570" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B570" s="19"/>
       <c r="C570" s="15" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="L570" s="20"/>
     </row>
     <row r="571" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B571" s="19"/>
       <c r="C571" s="15" t="s">
-        <v>551</v>
+        <v>626</v>
       </c>
       <c r="L571" s="20"/>
     </row>
     <row r="572" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B572" s="19"/>
       <c r="C572" s="15" t="s">
-        <v>552</v>
+        <v>627</v>
       </c>
       <c r="L572" s="20"/>
     </row>
     <row r="573" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B573" s="19"/>
       <c r="C573" s="15" t="s">
-        <v>553</v>
+        <v>628</v>
       </c>
       <c r="L573" s="20"/>
     </row>
     <row r="574" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B574" s="19"/>
       <c r="C574" s="15" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="L574" s="20"/>
     </row>
     <row r="575" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B575" s="19"/>
       <c r="C575" s="15" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="L575" s="20"/>
     </row>
     <row r="576" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B576" s="19"/>
       <c r="C576" s="15" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="L576" s="20"/>
     </row>
     <row r="577" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B577" s="19"/>
       <c r="C577" s="15" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="L577" s="20"/>
     </row>
     <row r="578" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B578" s="19"/>
       <c r="C578" s="15" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="L578" s="20"/>
     </row>
     <row r="579" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B579" s="19"/>
       <c r="C579" s="15" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="L579" s="20"/>
     </row>
     <row r="580" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B580" s="19"/>
       <c r="C580" s="15" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="L580" s="20"/>
     </row>
     <row r="581" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B581" s="19"/>
       <c r="C581" s="15" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="L581" s="20"/>
     </row>
     <row r="582" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B582" s="19"/>
       <c r="C582" s="15" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="L582" s="20"/>
     </row>
     <row r="583" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B583" s="19"/>
       <c r="C583" s="15" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="L583" s="20"/>
     </row>
     <row r="584" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B584" s="19"/>
       <c r="C584" s="15" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="L584" s="20"/>
     </row>
     <row r="585" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B585" s="19"/>
       <c r="C585" s="15" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="L585" s="20"/>
     </row>
     <row r="586" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B586" s="19"/>
       <c r="C586" s="15" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="L586" s="20"/>
     </row>
     <row r="587" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B587" s="19"/>
       <c r="C587" s="15" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="L587" s="20"/>
     </row>
     <row r="588" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B588" s="19"/>
       <c r="C588" s="15" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="L588" s="20"/>
     </row>
     <row r="589" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B589" s="19"/>
       <c r="C589" s="15" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="L589" s="20"/>
     </row>
     <row r="590" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B590" s="19"/>
       <c r="C590" s="15" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="L590" s="20"/>
     </row>
     <row r="591" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B591" s="19"/>
       <c r="C591" s="15" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="L591" s="20"/>
     </row>
     <row r="592" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B592" s="19"/>
       <c r="C592" s="15" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="L592" s="20"/>
     </row>
     <row r="593" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B593" s="19"/>
       <c r="C593" s="15" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="L593" s="20"/>
     </row>
     <row r="594" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B594" s="19"/>
       <c r="C594" s="15" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="L594" s="20"/>
     </row>
     <row r="595" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B595" s="19"/>
       <c r="C595" s="15" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="L595" s="20"/>
     </row>
     <row r="596" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B596" s="19"/>
       <c r="C596" s="15" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="L596" s="20"/>
     </row>
     <row r="597" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B597" s="19"/>
       <c r="C597" s="15" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="L597" s="20"/>
     </row>
     <row r="598" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B598" s="19"/>
       <c r="C598" s="15" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="L598" s="20"/>
     </row>
     <row r="599" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B599" s="19"/>
       <c r="C599" s="15" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="L599" s="20"/>
     </row>
     <row r="600" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B600" s="19"/>
       <c r="C600" s="15" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="L600" s="20"/>
     </row>
     <row r="601" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B601" s="19"/>
       <c r="C601" s="15" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="L601" s="20"/>
     </row>
     <row r="602" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B602" s="19"/>
       <c r="C602" s="15" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
       <c r="L602" s="20"/>
     </row>
     <row r="603" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B603" s="19"/>
       <c r="C603" s="15" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="L603" s="20"/>
     </row>
     <row r="604" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B604" s="19"/>
       <c r="C604" s="15" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="L604" s="20"/>
     </row>
     <row r="605" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B605" s="19"/>
       <c r="C605" s="15" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="L605" s="20"/>
     </row>
     <row r="606" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B606" s="19"/>
       <c r="C606" s="15" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="L606" s="20"/>
     </row>
     <row r="607" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B607" s="19"/>
       <c r="C607" s="15" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
       <c r="L607" s="20"/>
     </row>
     <row r="608" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B608" s="19"/>
       <c r="C608" s="15" t="s">
-        <v>588</v>
+        <v>567</v>
       </c>
       <c r="L608" s="20"/>
     </row>
     <row r="609" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B609" s="19"/>
       <c r="C609" s="15" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="L609" s="20"/>
     </row>
     <row r="610" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B610" s="19"/>
       <c r="C610" s="15" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="L610" s="20"/>
     </row>
     <row r="611" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B611" s="19"/>
       <c r="C611" s="15" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="L611" s="20"/>
     </row>
     <row r="612" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B612" s="19"/>
       <c r="C612" s="15" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="L612" s="20"/>
     </row>
     <row r="613" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B613" s="19"/>
       <c r="C613" s="15" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="L613" s="20"/>
     </row>
     <row r="614" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B614" s="19"/>
       <c r="C614" s="15" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="L614" s="20"/>
     </row>
     <row r="615" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B615" s="19"/>
       <c r="C615" s="15" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="L615" s="20"/>
     </row>
     <row r="616" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B616" s="19"/>
       <c r="C616" s="15" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="L616" s="20"/>
     </row>
     <row r="617" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B617" s="19"/>
       <c r="C617" s="15" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="L617" s="20"/>
     </row>
     <row r="618" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B618" s="19"/>
       <c r="C618" s="15" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="L618" s="20"/>
     </row>
     <row r="619" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B619" s="19"/>
       <c r="C619" s="15" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="L619" s="20"/>
     </row>
     <row r="620" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B620" s="19"/>
       <c r="C620" s="15" t="s">
-        <v>600</v>
+        <v>642</v>
       </c>
       <c r="L620" s="20"/>
     </row>
     <row r="621" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B621" s="19"/>
       <c r="C621" s="15" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="L621" s="20"/>
     </row>
     <row r="622" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B622" s="19"/>
       <c r="C622" s="15" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="L622" s="20"/>
     </row>
     <row r="623" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B623" s="19"/>
       <c r="C623" s="15" t="s">
-        <v>603</v>
+        <v>629</v>
       </c>
       <c r="L623" s="20"/>
     </row>
     <row r="624" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B624" s="19"/>
       <c r="C624" s="15" t="s">
-        <v>604</v>
+        <v>630</v>
       </c>
       <c r="L624" s="20"/>
     </row>
     <row r="625" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B625" s="19"/>
       <c r="C625" s="15" t="s">
-        <v>605</v>
+        <v>631</v>
       </c>
       <c r="L625" s="20"/>
     </row>
     <row r="626" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B626" s="19"/>
       <c r="C626" s="15" t="s">
-        <v>606</v>
+        <v>632</v>
       </c>
       <c r="L626" s="20"/>
     </row>
     <row r="627" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B627" s="19"/>
       <c r="C627" s="15" t="s">
-        <v>607</v>
+        <v>633</v>
       </c>
       <c r="L627" s="20"/>
     </row>
     <row r="628" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B628" s="19"/>
       <c r="C628" s="15" t="s">
-        <v>608</v>
+        <v>634</v>
       </c>
       <c r="L628" s="20"/>
     </row>
     <row r="629" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B629" s="19"/>
       <c r="C629" s="15" t="s">
-        <v>609</v>
+        <v>635</v>
       </c>
       <c r="L629" s="20"/>
     </row>
     <row r="630" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B630" s="19"/>
       <c r="C630" s="15" t="s">
-        <v>610</v>
+        <v>636</v>
       </c>
       <c r="L630" s="20"/>
     </row>
     <row r="631" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B631" s="19"/>
       <c r="C631" s="15" t="s">
-        <v>611</v>
+        <v>637</v>
       </c>
       <c r="L631" s="20"/>
     </row>
     <row r="632" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B632" s="19"/>
       <c r="C632" s="15" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
       <c r="L632" s="20"/>
     </row>
     <row r="633" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B633" s="19"/>
       <c r="C633" s="15" t="s">
-        <v>613</v>
+        <v>639</v>
       </c>
       <c r="L633" s="20"/>
     </row>
     <row r="634" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B634" s="19"/>
       <c r="C634" s="15" t="s">
-        <v>614</v>
+        <v>640</v>
       </c>
       <c r="L634" s="20"/>
     </row>
     <row r="635" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B635" s="19"/>
       <c r="C635" s="15" t="s">
-        <v>615</v>
+        <v>578</v>
       </c>
       <c r="L635" s="20"/>
     </row>
     <row r="636" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B636" s="19"/>
       <c r="C636" s="15" t="s">
-        <v>616</v>
+        <v>641</v>
       </c>
       <c r="L636" s="20"/>
     </row>
     <row r="637" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B637" s="19"/>
       <c r="C637" s="15" t="s">
-        <v>617</v>
+        <v>579</v>
       </c>
       <c r="L637" s="20"/>
     </row>
     <row r="638" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B638" s="19"/>
       <c r="C638" s="15" t="s">
-        <v>618</v>
+        <v>580</v>
       </c>
       <c r="L638" s="20"/>
     </row>
     <row r="639" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B639" s="19"/>
       <c r="C639" s="15" t="s">
-        <v>619</v>
+        <v>581</v>
       </c>
       <c r="L639" s="20"/>
     </row>
     <row r="640" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B640" s="19"/>
       <c r="C640" s="15" t="s">
-        <v>620</v>
+        <v>582</v>
       </c>
       <c r="L640" s="20"/>
     </row>
     <row r="641" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B641" s="19"/>
       <c r="C641" s="15" t="s">
-        <v>621</v>
+        <v>583</v>
       </c>
       <c r="L641" s="20"/>
     </row>
     <row r="642" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B642" s="19"/>
       <c r="C642" s="15" t="s">
-        <v>622</v>
+        <v>584</v>
       </c>
       <c r="L642" s="20"/>
     </row>
     <row r="643" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B643" s="19"/>
       <c r="C643" s="15" t="s">
-        <v>623</v>
+        <v>585</v>
       </c>
       <c r="L643" s="20"/>
     </row>
     <row r="644" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B644" s="19"/>
       <c r="C644" s="15" t="s">
-        <v>624</v>
+        <v>586</v>
       </c>
       <c r="L644" s="20"/>
     </row>
     <row r="645" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B645" s="19"/>
       <c r="C645" s="15" t="s">
-        <v>625</v>
+        <v>587</v>
       </c>
       <c r="L645" s="20"/>
     </row>
     <row r="646" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B646" s="19"/>
       <c r="C646" s="15" t="s">
-        <v>626</v>
+        <v>588</v>
       </c>
       <c r="L646" s="20"/>
     </row>
     <row r="647" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B647" s="19"/>
       <c r="C647" s="15" t="s">
-        <v>627</v>
+        <v>589</v>
       </c>
       <c r="L647" s="20"/>
     </row>
     <row r="648" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B648" s="19"/>
       <c r="C648" s="15" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="L648" s="20"/>
     </row>
     <row r="649" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B649" s="19"/>
       <c r="C649" s="15" t="s">
-        <v>629</v>
+        <v>591</v>
       </c>
       <c r="L649" s="20"/>
     </row>
     <row r="650" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B650" s="19"/>
       <c r="C650" s="15" t="s">
-        <v>630</v>
+        <v>592</v>
       </c>
       <c r="L650" s="20"/>
     </row>
@@ -8116,7 +8128,7 @@
   <dimension ref="B6:H56"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8148,20 +8160,20 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="29"/>
       <c r="C10" t="s">
-        <v>635</v>
+        <v>597</v>
       </c>
       <c r="D10" t="s">
-        <v>636</v>
+        <v>598</v>
       </c>
       <c r="E10" t="s">
-        <v>631</v>
+        <v>593</v>
       </c>
       <c r="F10" s="30"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="29"/>
       <c r="C11" t="s">
-        <v>632</v>
+        <v>594</v>
       </c>
       <c r="D11" s="31">
         <v>44927</v>
@@ -8174,7 +8186,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="29"/>
       <c r="C12" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="D12" s="31">
         <v>44927</v>
@@ -8187,7 +8199,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="29"/>
       <c r="C13" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="D13" s="31">
         <v>44927</v>
@@ -8200,7 +8212,7 @@
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="29"/>
       <c r="C14" t="s">
-        <v>632</v>
+        <v>594</v>
       </c>
       <c r="D14" s="31">
         <v>44958</v>
@@ -8213,7 +8225,7 @@
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="29"/>
       <c r="C15" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="D15" s="31">
         <v>44958</v>
@@ -8227,7 +8239,7 @@
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="29"/>
       <c r="C16" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="D16" s="31">
         <v>44958</v>
@@ -8240,7 +8252,7 @@
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="29"/>
       <c r="C17" t="s">
-        <v>632</v>
+        <v>594</v>
       </c>
       <c r="D17" s="31">
         <v>44986</v>
@@ -8253,7 +8265,7 @@
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="29"/>
       <c r="C18" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="D18" s="31">
         <v>44986</v>
@@ -8266,7 +8278,7 @@
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="29"/>
       <c r="C19" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="D19" s="31">
         <v>44986</v>
@@ -8279,7 +8291,7 @@
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="29"/>
       <c r="C20" t="s">
-        <v>632</v>
+        <v>594</v>
       </c>
       <c r="D20" s="31">
         <v>45017</v>
@@ -8292,7 +8304,7 @@
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="29"/>
       <c r="C21" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="D21" s="31">
         <v>45017</v>
@@ -8305,7 +8317,7 @@
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="29"/>
       <c r="C22" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="D22" s="31">
         <v>45017</v>
@@ -8318,7 +8330,7 @@
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="29"/>
       <c r="C23" t="s">
-        <v>632</v>
+        <v>594</v>
       </c>
       <c r="D23" s="31">
         <v>45047</v>
@@ -8331,7 +8343,7 @@
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="29"/>
       <c r="C24" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="D24" s="31">
         <v>45047</v>
@@ -8344,7 +8356,7 @@
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="29"/>
       <c r="C25" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="D25" s="31">
         <v>45047</v>
@@ -8357,7 +8369,7 @@
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="29"/>
       <c r="C26" t="s">
-        <v>632</v>
+        <v>594</v>
       </c>
       <c r="D26" s="31">
         <v>45078</v>
@@ -8370,7 +8382,7 @@
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="29"/>
       <c r="C27" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="D27" s="31">
         <v>45078</v>
@@ -8383,7 +8395,7 @@
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="29"/>
       <c r="C28" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="D28" s="31">
         <v>45078</v>
@@ -8396,7 +8408,7 @@
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="29"/>
       <c r="C29" t="s">
-        <v>632</v>
+        <v>594</v>
       </c>
       <c r="D29" s="31">
         <v>45108</v>
@@ -8409,7 +8421,7 @@
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="29"/>
       <c r="C30" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="D30" s="31">
         <v>45108</v>
@@ -8422,7 +8434,7 @@
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="29"/>
       <c r="C31" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="D31" s="31">
         <v>45108</v>
@@ -8435,7 +8447,7 @@
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="29"/>
       <c r="C32" t="s">
-        <v>632</v>
+        <v>594</v>
       </c>
       <c r="D32" s="31">
         <v>45139</v>
@@ -8448,7 +8460,7 @@
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="29"/>
       <c r="C33" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="D33" s="31">
         <v>45139</v>
@@ -8461,7 +8473,7 @@
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="29"/>
       <c r="C34" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="D34" s="31">
         <v>45139</v>
@@ -8474,7 +8486,7 @@
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="29"/>
       <c r="C35" t="s">
-        <v>632</v>
+        <v>594</v>
       </c>
       <c r="D35" s="31">
         <v>45170</v>
@@ -8487,7 +8499,7 @@
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="29"/>
       <c r="C36" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="D36" s="31">
         <v>45170</v>
@@ -8500,7 +8512,7 @@
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="29"/>
       <c r="C37" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="D37" s="31">
         <v>45170</v>
@@ -8513,7 +8525,7 @@
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="29"/>
       <c r="C38" t="s">
-        <v>632</v>
+        <v>594</v>
       </c>
       <c r="D38" s="31">
         <v>45200</v>
@@ -8526,7 +8538,7 @@
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="29"/>
       <c r="C39" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="D39" s="31">
         <v>45200</v>
@@ -8539,7 +8551,7 @@
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="29"/>
       <c r="C40" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="D40" s="31">
         <v>45200</v>
@@ -8552,7 +8564,7 @@
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="29"/>
       <c r="C41" t="s">
-        <v>632</v>
+        <v>594</v>
       </c>
       <c r="D41" s="31">
         <v>45231</v>
@@ -8565,7 +8577,7 @@
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="29"/>
       <c r="C42" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="D42" s="31">
         <v>45231</v>
@@ -8578,7 +8590,7 @@
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="29"/>
       <c r="C43" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="D43" s="31">
         <v>45231</v>
@@ -8591,7 +8603,7 @@
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="29"/>
       <c r="C44" t="s">
-        <v>632</v>
+        <v>594</v>
       </c>
       <c r="D44" s="31">
         <v>45261</v>
@@ -8604,7 +8616,7 @@
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="29"/>
       <c r="C45" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="D45" s="31">
         <v>45261</v>
@@ -8617,7 +8629,7 @@
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="29"/>
       <c r="C46" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="D46" s="31">
         <v>45261</v>
@@ -8630,7 +8642,7 @@
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="29"/>
       <c r="C47" t="s">
-        <v>632</v>
+        <v>594</v>
       </c>
       <c r="D47" s="31">
         <v>45292</v>
@@ -8643,7 +8655,7 @@
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="29"/>
       <c r="C48" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="D48" s="31">
         <v>45292</v>
@@ -8656,7 +8668,7 @@
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="29"/>
       <c r="C49" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="D49" s="31">
         <v>45292</v>
@@ -8669,7 +8681,7 @@
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="29"/>
       <c r="C50" t="s">
-        <v>632</v>
+        <v>594</v>
       </c>
       <c r="D50" s="31">
         <v>45323</v>
@@ -8682,7 +8694,7 @@
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="29"/>
       <c r="C51" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="D51" s="31">
         <v>45323</v>
@@ -8695,7 +8707,7 @@
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="29"/>
       <c r="C52" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="D52" s="31">
         <v>45323</v>
@@ -8708,7 +8720,7 @@
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="29"/>
       <c r="C53" t="s">
-        <v>632</v>
+        <v>594</v>
       </c>
       <c r="D53" s="31">
         <v>45352</v>
@@ -8721,7 +8733,7 @@
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="29"/>
       <c r="C54" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="D54" s="31">
         <v>45352</v>
@@ -8734,7 +8746,7 @@
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="29"/>
       <c r="C55" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="D55" s="31">
         <v>45352</v>
